--- a/Results Data.xlsx
+++ b/Results Data.xlsx
@@ -483,7 +483,7 @@
   <dimension ref="A2:S20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
